--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19724.08314122839</v>
+        <v>-22245.58773174813</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>365.0621464976907</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>166.1523628351881</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>97.22110221550739</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>5.667139474865047</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>143.808141249561</v>
       </c>
       <c r="G5" t="n">
-        <v>234.2910680449557</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1102,22 +1102,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>50.30862605639081</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>121.0796722814751</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>279.9290008945228</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>207.5754705974917</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>89.40979283670825</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>66.0744886928703</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>81.54417886827336</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>193.9962538432431</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>114.2173032139425</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>106.8299898147636</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>218.6444667192164</v>
+        <v>281.4692737200721</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>36.74735985927992</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>140.7058473537592</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>26.05480806223585</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="U31" t="n">
-        <v>166.8182344285488</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.30974811734292</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>81.13054509253726</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>82.30974811734347</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>59.66990246485164</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>27.77749086859478</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1452.155307492517</v>
+        <v>805.7846820932077</v>
       </c>
       <c r="C2" t="n">
-        <v>1452.155307492517</v>
+        <v>805.7846820932077</v>
       </c>
       <c r="D2" t="n">
-        <v>1093.889608885767</v>
+        <v>805.7846820932077</v>
       </c>
       <c r="E2" t="n">
-        <v>708.1013562875223</v>
+        <v>419.9964294949635</v>
       </c>
       <c r="F2" t="n">
-        <v>701.1558555383189</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>285.4511052626077</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.894479532451</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X2" t="n">
-        <v>2228.894479532451</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.755147556639</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2238.100841080695</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1019332386097</v>
+        <v>1539.90815700699</v>
       </c>
       <c r="C4" t="n">
-        <v>157.1019332386097</v>
+        <v>1370.971974079083</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386097</v>
+        <v>1370.971974079083</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386097</v>
+        <v>1272.768840528065</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329318</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="V4" t="n">
-        <v>673.036065727045</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="W4" t="n">
-        <v>383.6188956900843</v>
+        <v>2170.338751878777</v>
       </c>
       <c r="X4" t="n">
-        <v>377.8945123821399</v>
+        <v>1942.349200980759</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.1019332386097</v>
+        <v>1721.556621837229</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1134.226501951988</v>
+        <v>1709.873294294348</v>
       </c>
       <c r="C5" t="n">
-        <v>765.2639850115766</v>
+        <v>1340.910777353936</v>
       </c>
       <c r="D5" t="n">
-        <v>765.2639850115766</v>
+        <v>982.6450787471858</v>
       </c>
       <c r="E5" t="n">
-        <v>765.2639850115766</v>
+        <v>982.6450787471858</v>
       </c>
       <c r="F5" t="n">
-        <v>354.278080221969</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4586,31 +4586,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.83159218888</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.83159218888</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="X5" t="n">
-        <v>1524.3658339278</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="Y5" t="n">
-        <v>1134.226501951988</v>
+        <v>1709.873294294348</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,40 +4632,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100999</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2015.115393042427</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2262.298126874724</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>938.9442613508774</v>
+        <v>940.7932119894607</v>
       </c>
       <c r="C7" t="n">
-        <v>770.0080784229705</v>
+        <v>771.8570290615538</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106347</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1483.045919593725</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1483.045919593725</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1483.045919593725</v>
+        <v>1244.744376093918</v>
       </c>
       <c r="V7" t="n">
-        <v>1228.361431387838</v>
+        <v>1244.744376093918</v>
       </c>
       <c r="W7" t="n">
-        <v>938.9442613508774</v>
+        <v>1244.744376093918</v>
       </c>
       <c r="X7" t="n">
-        <v>938.9442613508774</v>
+        <v>1122.4416768197</v>
       </c>
       <c r="Y7" t="n">
-        <v>938.9442613508774</v>
+        <v>1122.4416768197</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>764.341133147311</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>764.341133147311</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758595</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>866.1004720732712</v>
+        <v>629.1078027362229</v>
       </c>
       <c r="C10" t="n">
-        <v>866.1004720732712</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D10" t="n">
-        <v>715.9838326609355</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>568.0707390785424</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4957,7 +4957,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1770.722183075445</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1548.955567644971</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1548.955567644971</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1548.955567644971</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1259.53839760801</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1031.548846709993</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.1004720732712</v>
+        <v>810.7562675664626</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,13 +5121,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1895.093223067808</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1640.408734861921</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1350.99156482496</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.615197557859</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000571</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2272.00829921169</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2052.406834234631</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2052.406834234631</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1797.722346028744</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5598,19 +5598,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>810.0653816078141</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1756.608083824432</v>
+        <v>1876.003517158562</v>
       </c>
       <c r="V19" t="n">
-        <v>1501.923595618545</v>
+        <v>1621.319028952675</v>
       </c>
       <c r="W19" t="n">
-        <v>1212.506425581584</v>
+        <v>1331.901858915714</v>
       </c>
       <c r="X19" t="n">
-        <v>1212.506425581584</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y19" t="n">
-        <v>991.7138464380538</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D22" t="n">
-        <v>377.6556127449245</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>377.6556127449245</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474262</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>701.4712640439268</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>532.5350811160199</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>382.4184417036842</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U31" t="n">
-        <v>1876.003517158562</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1621.319028952675</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1331.901858915714</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1103.912308017697</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>883.1197288741665</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>718.5507239167111</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>549.6145409888043</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>900.1991887469509</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>718.550723916711</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2182.158203687148</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1893.082977031346</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1638.398488825459</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1348.981318788498</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1120.991767890481</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>900.1991887469508</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311994</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032925</v>
+        <v>822.8075068028749</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7557007032925</v>
+        <v>672.6908673905391</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>524.777773808146</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>377.8878263102356</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614391</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,10 +7427,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>186.4490126143853</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>54.95314511566488</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.0073097921333</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>41.81389924402072</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>134.8661897272173</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,16 +22598,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>311.3575148952235</v>
       </c>
       <c r="W2" t="n">
-        <v>185.4658620367552</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>204.6402955209708</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>31.71340154579403</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>51.30683507832633</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>74.196296186881</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>67.54000767002776</v>
+        <v>4.71520066917202</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229321</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>24.81829093850965</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856647</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>119.3662399606954</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>45.37941682720972</v>
       </c>
       <c r="U31" t="n">
-        <v>119.3662399606953</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>136.274905234751</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>64.1242145292257</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>105.8542358274172</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>139.4693302300331</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794696</v>
+        <v>298593.7657794697</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457135</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="E2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="H2" t="n">
         <v>322858.6398760024</v>
@@ -26335,22 +26335,22 @@
         <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="K2" t="n">
         <v>322858.6398760023</v>
       </c>
       <c r="L2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="M2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="N2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
         <v>322858.6398760024</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.027935512</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92967.25326431783</v>
+        <v>92967.25326431797</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744299</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
+        <v>8727.256391744295</v>
+      </c>
+      <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="J4" t="n">
-        <v>8727.256391744297</v>
-      </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744326</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744306</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744266</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1002063.043500613</v>
+        <v>-1002249.436889152</v>
       </c>
       <c r="C6" t="n">
-        <v>99956.79852888589</v>
+        <v>99956.7985288857</v>
       </c>
       <c r="D6" t="n">
-        <v>-60058.66421911345</v>
+        <v>-60058.66421911329</v>
       </c>
       <c r="E6" t="n">
-        <v>-112403.6081470039</v>
+        <v>-112438.3460724398</v>
       </c>
       <c r="F6" t="n">
-        <v>213008.8536603511</v>
+        <v>212974.1157349153</v>
       </c>
       <c r="G6" t="n">
-        <v>213008.853660351</v>
+        <v>212974.1157349152</v>
       </c>
       <c r="H6" t="n">
-        <v>213008.8536603512</v>
+        <v>212974.1157349152</v>
       </c>
       <c r="I6" t="n">
-        <v>213008.853660351</v>
+        <v>212974.1157349152</v>
       </c>
       <c r="J6" t="n">
-        <v>45403.67585036841</v>
+        <v>45368.93792493272</v>
       </c>
       <c r="K6" t="n">
-        <v>213008.8536603509</v>
+        <v>212974.1157349152</v>
       </c>
       <c r="L6" t="n">
-        <v>164714.8836521604</v>
+        <v>164680.1457267245</v>
       </c>
       <c r="M6" t="n">
-        <v>127953.8257248391</v>
+        <v>127919.0877994034</v>
       </c>
       <c r="N6" t="n">
-        <v>213008.8536603511</v>
+        <v>212974.1157349152</v>
       </c>
       <c r="O6" t="n">
-        <v>213008.8536603511</v>
+        <v>212974.1157349153</v>
       </c>
       <c r="P6" t="n">
-        <v>213008.8536603512</v>
+        <v>212974.1157349153</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>16.39474357491144</v>
       </c>
       <c r="W2" t="n">
-        <v>163.7751066806578</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>49.21286043106178</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>220.0425159141721</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>263.0679044921504</v>
       </c>
       <c r="G5" t="n">
-        <v>177.2566347279983</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>144.3538343053467</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>104.6299831075621</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>126.9470448471886</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>141.6654981199213</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>56.011255186223</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>123.6945366385716</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,16 +31841,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34793,10 +34793,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>302.9297349452399</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977094</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L6" t="n">
-        <v>640.584832100039</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>304.6326742391972</v>
       </c>
       <c r="Q6" t="n">
-        <v>278.4880321229878</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
